--- a/docs/rawModelAnalysis.xlsx
+++ b/docs/rawModelAnalysis.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Original" sheetId="2" r:id="rId1"/>
+    <sheet name="Patched" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>actual</t>
   </si>
@@ -36,6 +37,9 @@
   <si>
     <t>Count of actual</t>
   </si>
+  <si>
+    <t>Both 3-5 and 4-9 patches</t>
+  </si>
 </sst>
 </file>
 
@@ -44,7 +48,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +57,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -68,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -76,12 +88,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -89,6 +116,8 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -107,7 +136,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Garrett" refreshedDate="42137.863469560187" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1001">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:B1002" sheet="Sheet2"/>
+    <worksheetSource ref="A1:B1002" sheet="Original"/>
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="actual" numFmtId="0">
@@ -4157,7 +4186,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D2:O14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -4605,7 +4634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5183,43 +5212,43 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <f>E3</f>
+        <f t="shared" ref="E17:N17" si="0">E3</f>
         <v>0</v>
       </c>
       <c r="F17">
-        <f>F3</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G17">
-        <f>G3</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H17">
-        <f>H3</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I17">
-        <f>I3</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J17">
-        <f>J3</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K17">
-        <f>K3</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="L17">
-        <f>L3</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="M17">
-        <f>M3</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="N17">
-        <f>N3</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -5231,44 +5260,44 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <f>D4</f>
+        <f t="shared" ref="D18:D27" si="1">D4</f>
         <v>0</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4">
-        <f>F4</f>
+        <f t="shared" ref="F18:N18" si="2">F4</f>
         <v>0</v>
       </c>
       <c r="G18" s="4">
-        <f>G4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H18" s="4">
-        <f>H4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I18" s="4">
-        <f>I4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <f>J4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K18" s="4">
-        <f>K4</f>
+        <f t="shared" si="2"/>
         <v>2.3529411764705882E-2</v>
       </c>
       <c r="L18" s="4">
-        <f>L4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M18" s="4">
-        <f>M4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N18" s="4">
-        <f>N4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5280,44 +5309,44 @@
         <v>9</v>
       </c>
       <c r="D19">
-        <f>D5</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E19" s="4">
-        <f>E5</f>
+        <f t="shared" ref="E19:E27" si="3">E5</f>
         <v>0</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4">
-        <f>G5</f>
+        <f t="shared" ref="G19:N19" si="4">G5</f>
         <v>8.4033613445378148E-3</v>
       </c>
       <c r="H19" s="4">
-        <f>H5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I19" s="4">
-        <f>I5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J19" s="4">
-        <f>J5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K19" s="4">
-        <f>K5</f>
+        <f t="shared" si="4"/>
         <v>8.4033613445378148E-3</v>
       </c>
       <c r="L19" s="4">
-        <f>L5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M19" s="4">
-        <f>M5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N19" s="4">
-        <f>N5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5329,44 +5358,44 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <f>D6</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E20" s="4">
-        <f>E6</f>
+        <f t="shared" si="3"/>
         <v>9.9009900990099011E-3</v>
       </c>
       <c r="F20" s="4">
-        <f>F6</f>
+        <f t="shared" ref="F20:F27" si="5">F6</f>
         <v>9.9009900990099011E-3</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4">
-        <f>H6</f>
+        <f t="shared" ref="H20:N20" si="6">H6</f>
         <v>0</v>
       </c>
       <c r="I20" s="4">
-        <f>I6</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J20" s="4">
-        <f>J6</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K20" s="4">
-        <f>K6</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L20" s="4">
-        <f>L6</f>
+        <f t="shared" si="6"/>
         <v>2.9702970297029702E-2</v>
       </c>
       <c r="M20" s="4">
-        <f>M6</f>
+        <f t="shared" si="6"/>
         <v>9.9009900990099011E-3</v>
       </c>
       <c r="N20" s="4">
-        <f>N6</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -5378,44 +5407,44 @@
         <v>9</v>
       </c>
       <c r="D21">
-        <f>D7</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E21" s="4">
-        <f>E7</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F21" s="4">
-        <f>F7</f>
+        <f t="shared" si="5"/>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G21" s="4">
-        <f>G7</f>
+        <f t="shared" ref="G21:G27" si="7">G7</f>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4">
-        <f>I7</f>
+        <f t="shared" ref="I21:N21" si="8">I7</f>
         <v>0</v>
       </c>
       <c r="J21" s="4">
-        <f>J7</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K21" s="4">
-        <f>K7</f>
+        <f t="shared" si="8"/>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="L21" s="4">
-        <f>L7</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M21" s="4">
-        <f>M7</f>
+        <f t="shared" si="8"/>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="N21" s="4">
-        <f>N7</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5427,23 +5456,23 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <f>D8</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E22" s="4">
-        <f>E8</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F22" s="4">
-        <f>F8</f>
+        <f t="shared" si="5"/>
         <v>1.9047619047619049E-2</v>
       </c>
       <c r="G22" s="4">
-        <f>G8</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H22" s="4">
-        <f>H8</f>
+        <f t="shared" ref="H22:H27" si="9">H8</f>
         <v>0</v>
       </c>
       <c r="I22" s="4"/>
@@ -5476,23 +5505,23 @@
         <v>5</v>
       </c>
       <c r="D23">
-        <f>D9</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="E23" s="4">
-        <f>E9</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F23" s="4">
-        <f>F9</f>
+        <f t="shared" si="5"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="G23" s="4">
-        <f>G9</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H23" s="4">
-        <f>H9</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I23" s="4">
@@ -5525,23 +5554,23 @@
         <v>4</v>
       </c>
       <c r="D24">
-        <f>D10</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E24" s="4">
-        <f>E10</f>
+        <f t="shared" si="3"/>
         <v>3.125E-2</v>
       </c>
       <c r="F24" s="4">
-        <f>F10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G24" s="4">
-        <f>G10</f>
+        <f t="shared" si="7"/>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="H24" s="4">
-        <f>H10</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I24" s="4">
@@ -5574,23 +5603,23 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <f>D11</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="E25" s="4">
-        <f>E11</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F25" s="4">
-        <f>F11</f>
+        <f t="shared" si="5"/>
         <v>1.9607843137254902E-2</v>
       </c>
       <c r="G25" s="4">
-        <f>G11</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H25" s="4">
-        <f>H11</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I25" s="4">
@@ -5623,23 +5652,23 @@
         <v>6</v>
       </c>
       <c r="D26">
-        <f>D12</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="E26" s="4">
-        <f>E12</f>
+        <f t="shared" si="3"/>
         <v>1.098901098901099E-2</v>
       </c>
       <c r="F26" s="4">
-        <f>F12</f>
+        <f t="shared" si="5"/>
         <v>3.2967032967032968E-2</v>
       </c>
       <c r="G26" s="4">
-        <f>G12</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H26" s="4">
-        <f>H12</f>
+        <f t="shared" si="9"/>
         <v>6.5934065934065936E-2</v>
       </c>
       <c r="I26" s="4">
@@ -5672,23 +5701,23 @@
         <v>7</v>
       </c>
       <c r="D27">
-        <f>D13</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E27" s="4">
-        <f>E13</f>
+        <f t="shared" si="3"/>
         <v>9.0909090909090905E-3</v>
       </c>
       <c r="F27" s="4">
-        <f>F13</f>
+        <f t="shared" si="5"/>
         <v>9.0909090909090905E-3</v>
       </c>
       <c r="G27" s="4">
-        <f>G13</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H27" s="4">
-        <f>H13</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I27" s="4">
@@ -13538,4 +13567,1451 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>860</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>SUM(B2:K2)</f>
+        <v>874</v>
+      </c>
+      <c r="N2">
+        <f>MAX(B2:K2)</f>
+        <v>860</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>931</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M11" si="0">SUM(B3:K3)</f>
+        <v>939</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N11" si="1">MAX(B3:K3)</f>
+        <v>931</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>792</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>810</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>792</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>806</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>846</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>806</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>799</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>23</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>828</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>711</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>748</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>795</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>805</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>795</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>886</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>908</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>886</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>805</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>847</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>744</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>795</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <f>SUM(M2:M11)</f>
+        <v>8400</v>
+      </c>
+      <c r="N12">
+        <f>SUM(N2:N11)</f>
+        <v>8129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" s="5">
+        <f>B2/$M2</f>
+        <v>0.98398169336384445</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" ref="C14:K14" si="2">C2/$M2</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="2"/>
+        <v>3.4324942791762012E-3</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="2"/>
+        <v>1.1441647597254005E-3</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="2"/>
+        <v>2.2883295194508009E-3</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="2"/>
+        <v>6.8649885583524023E-3</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="2"/>
+        <v>2.2883295194508009E-3</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <f>N12/M12</f>
+        <v>0.96773809523809529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5">
+        <f t="shared" ref="B15:K23" si="3">B3/$M3</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="3"/>
+        <v>0.9914802981895634</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="3"/>
+        <v>2.1299254526091589E-3</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="3"/>
+        <v>1.0649627263045794E-3</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="3"/>
+        <v>2.1299254526091589E-3</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" si="3"/>
+        <v>3.1948881789137379E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5">
+        <f t="shared" si="3"/>
+        <v>3.7037037037037038E-3</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="3"/>
+        <v>1.2345679012345679E-3</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="3"/>
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="3"/>
+        <v>2.4691358024691358E-3</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="3"/>
+        <v>1.2345679012345679E-3</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="3"/>
+        <v>8.6419753086419745E-3</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="3"/>
+        <v>4.9382716049382715E-3</v>
+      </c>
+      <c r="K16" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="3"/>
+        <v>1.1820330969267139E-3</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="3"/>
+        <v>9.4562647754137114E-3</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="3"/>
+        <v>0.95271867612293148</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="3"/>
+        <v>1.3002364066193853E-2</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="3"/>
+        <v>1.1820330969267139E-3</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="3"/>
+        <v>2.3640661938534278E-3</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="3"/>
+        <v>1.7730496453900711E-2</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" si="3"/>
+        <v>2.3640661938534278E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" s="5">
+        <f t="shared" si="3"/>
+        <v>2.4154589371980675E-3</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="3"/>
+        <v>3.6231884057971015E-3</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="3"/>
+        <v>0.96497584541062797</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="3"/>
+        <v>1.2077294685990338E-3</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" si="3"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" s="5">
+        <f t="shared" si="3"/>
+        <v>4.0106951871657758E-3</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" si="3"/>
+        <v>1.3368983957219251E-3</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="3"/>
+        <v>1.3368983957219251E-3</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="3"/>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="3"/>
+        <v>2.6737967914438501E-3</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="3"/>
+        <v>0.95053475935828879</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="3"/>
+        <v>6.6844919786096255E-3</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="3"/>
+        <v>5.3475935828877002E-3</v>
+      </c>
+      <c r="K19" s="5">
+        <f t="shared" si="3"/>
+        <v>5.3475935828877002E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20" s="5">
+        <f t="shared" si="3"/>
+        <v>3.7267080745341614E-3</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="3"/>
+        <v>1.2422360248447205E-3</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="3"/>
+        <v>7.4534161490683228E-3</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="3"/>
+        <v>0.98757763975155277</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" s="5">
+        <f t="shared" si="3"/>
+        <v>1.1013215859030838E-3</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="3"/>
+        <v>6.6079295154185024E-3</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="3"/>
+        <v>1.1013215859030838E-3</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="3"/>
+        <v>3.3039647577092512E-3</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="3"/>
+        <v>1.1013215859030838E-3</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="3"/>
+        <v>0.97577092511013219</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="3"/>
+        <v>2.2026431718061676E-3</v>
+      </c>
+      <c r="K21" s="5">
+        <f t="shared" si="3"/>
+        <v>8.8105726872246704E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22" s="5">
+        <f t="shared" si="3"/>
+        <v>1.1806375442739079E-3</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="3"/>
+        <v>5.9031877213695395E-3</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="3"/>
+        <v>2.3612750885478157E-3</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="3"/>
+        <v>2.0070838252656435E-2</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="3"/>
+        <v>4.7225501770956314E-3</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="3"/>
+        <v>4.7225501770956314E-3</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="3"/>
+        <v>3.5419126328217238E-3</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="3"/>
+        <v>1.1806375442739079E-3</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="3"/>
+        <v>0.95041322314049592</v>
+      </c>
+      <c r="K22" s="5">
+        <f t="shared" si="3"/>
+        <v>5.9031877213695395E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23" s="5">
+        <f t="shared" si="3"/>
+        <v>5.0314465408805029E-3</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" si="3"/>
+        <v>2.5157232704402514E-3</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="3"/>
+        <v>2.5157232704402514E-3</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="3"/>
+        <v>7.5471698113207548E-3</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="3"/>
+        <v>8.8050314465408803E-3</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="3"/>
+        <v>6.2893081761006293E-3</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="3"/>
+        <v>2.5157232704402514E-3</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="3"/>
+        <v>2.5157232704402517E-2</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" si="3"/>
+        <v>3.7735849056603774E-3</v>
+      </c>
+      <c r="K23" s="5">
+        <f t="shared" si="3"/>
+        <v>0.9358490566037736</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>7</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="K25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4">
+        <f t="shared" ref="C26:K26" si="4">C14</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="4"/>
+        <v>3.4324942791762012E-3</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="4"/>
+        <v>1.1441647597254005E-3</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="4"/>
+        <v>2.2883295194508009E-3</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="4"/>
+        <v>6.8649885583524023E-3</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="4"/>
+        <v>2.2883295194508009E-3</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" s="4">
+        <f t="shared" ref="B27:K35" si="5">B15</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4">
+        <f t="shared" si="5"/>
+        <v>2.1299254526091589E-3</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="5"/>
+        <v>1.0649627263045794E-3</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="5"/>
+        <v>2.1299254526091589E-3</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="5"/>
+        <v>3.1948881789137379E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" s="4">
+        <f t="shared" si="5"/>
+        <v>3.7037037037037038E-3</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="5"/>
+        <v>1.2345679012345679E-3</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4">
+        <f t="shared" si="5"/>
+        <v>2.4691358024691358E-3</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="5"/>
+        <v>1.2345679012345679E-3</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="5"/>
+        <v>8.6419753086419745E-3</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="5"/>
+        <v>4.9382716049382715E-3</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1820330969267139E-3</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="5"/>
+        <v>9.4562647754137114E-3</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="5"/>
+        <v>1.3002364066193853E-2</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1820330969267139E-3</v>
+      </c>
+      <c r="I29" s="4">
+        <f t="shared" si="5"/>
+        <v>2.3640661938534278E-3</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" si="5"/>
+        <v>1.7730496453900711E-2</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="5"/>
+        <v>2.3640661938534278E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" s="4">
+        <f t="shared" si="5"/>
+        <v>2.4154589371980675E-3</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" si="5"/>
+        <v>3.6231884057971015E-3</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="5"/>
+        <v>1.2077294685990338E-3</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="5"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31" s="4">
+        <f t="shared" si="5"/>
+        <v>4.0106951871657758E-3</v>
+      </c>
+      <c r="C31" s="4">
+        <f t="shared" si="5"/>
+        <v>1.3368983957219251E-3</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="5"/>
+        <v>1.3368983957219251E-3</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="5"/>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="5"/>
+        <v>2.6737967914438501E-3</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4">
+        <f t="shared" si="5"/>
+        <v>6.6844919786096255E-3</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <f t="shared" si="5"/>
+        <v>5.3475935828877002E-3</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" si="5"/>
+        <v>5.3475935828877002E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32" s="4">
+        <f t="shared" si="5"/>
+        <v>3.7267080745341614E-3</v>
+      </c>
+      <c r="C32" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" si="5"/>
+        <v>1.2422360248447205E-3</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="5"/>
+        <v>7.4534161490683228E-3</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1013215859030838E-3</v>
+      </c>
+      <c r="C33" s="4">
+        <f t="shared" si="5"/>
+        <v>6.6079295154185024E-3</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1013215859030838E-3</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" si="5"/>
+        <v>3.3039647577092512E-3</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1013215859030838E-3</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4">
+        <f t="shared" si="5"/>
+        <v>2.2026431718061676E-3</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" si="5"/>
+        <v>8.8105726872246704E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1806375442739079E-3</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" si="5"/>
+        <v>5.9031877213695395E-3</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="5"/>
+        <v>2.3612750885478157E-3</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="5"/>
+        <v>2.0070838252656435E-2</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" si="5"/>
+        <v>4.7225501770956314E-3</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="5"/>
+        <v>4.7225501770956314E-3</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" si="5"/>
+        <v>3.5419126328217238E-3</v>
+      </c>
+      <c r="I34" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1806375442739079E-3</v>
+      </c>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4">
+        <f t="shared" si="5"/>
+        <v>5.9031877213695395E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35" s="4">
+        <f t="shared" si="5"/>
+        <v>5.0314465408805029E-3</v>
+      </c>
+      <c r="C35" s="4">
+        <f t="shared" si="5"/>
+        <v>2.5157232704402514E-3</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="5"/>
+        <v>2.5157232704402514E-3</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="5"/>
+        <v>7.5471698113207548E-3</v>
+      </c>
+      <c r="F35" s="4">
+        <f t="shared" si="5"/>
+        <v>8.8050314465408803E-3</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="5"/>
+        <v>6.2893081761006293E-3</v>
+      </c>
+      <c r="H35" s="4">
+        <f t="shared" si="5"/>
+        <v>2.5157232704402514E-3</v>
+      </c>
+      <c r="I35" s="4">
+        <f t="shared" si="5"/>
+        <v>2.5157232704402517E-2</v>
+      </c>
+      <c r="J35" s="4">
+        <f t="shared" si="5"/>
+        <v>3.7735849056603774E-3</v>
+      </c>
+      <c r="K35" s="4"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B14:K23">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:K35">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>